--- a/python/tema-012/mysite/movies.xlsx
+++ b/python/tema-012/mysite/movies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XDrag\Desktop\openbootcamp\python\tema-012\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC16BBFC-1DED-4BE4-92BD-97EB368DD2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C2AAA-DB19-4169-A973-EB5BF11D59BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D108DAAF-13A6-4FE5-A67B-EE91F32E9731}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7995" xr2:uid="{D108DAAF-13A6-4FE5-A67B-EE91F32E9731}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,79 +36,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>movie1</t>
-  </si>
-  <si>
-    <t>movie2</t>
-  </si>
-  <si>
-    <t>movie3</t>
-  </si>
-  <si>
-    <t>Pan's Labyrinth</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Prisoner of Azkaban</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Avengers: Endgame</t>
-  </si>
-  <si>
-    <t>The Gray Man</t>
-  </si>
-  <si>
-    <t>Extraction</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War</t>
-  </si>
-  <si>
-    <t>Captain America: The Winter Soldier</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>The Hobbit: An Unexpected Journey</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings: The Return of the King</t>
-  </si>
-  <si>
-    <t>King Kong</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>The Terminator</t>
-  </si>
-  <si>
-    <t>Titanic</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>movie_id</t>
+  </si>
+  <si>
+    <t>"Pan's Labyrinth"</t>
+  </si>
+  <si>
+    <t>“Ofelia moves with her mother to her stepfather's house. At night, a fairy leads her to a faun who informs her that she is a princess and she needs to participate in three tasks to prove her royalty.”</t>
+  </si>
+  <si>
+    <t>"1hr 59min"</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>“Harry Potter and the Prisoner of Azkaban”</t>
+  </si>
+  <si>
+    <t>“Harry, Ron and Hermoine return to Hogwarts just as they learn about Sirius Black and his plans to kill Harry. However, when Harry runs into him, he learns that the truth is far from reality.”</t>
+  </si>
+  <si>
+    <t>“2h 19m”</t>
+  </si>
+  <si>
+    <t>“Avengers: Endgame”</t>
+  </si>
+  <si>
+    <t>“A drift in space with no food or water, Tony Stark sends a message to Pepper Potts as his oxygen supply starts to dwindle. Meanwhile, the remaining Avengers -- Thor, Black Widow, Captain America and Bruce Banner -- must figure out a way to bring back their vanquished allies for an epic showdown with Thanos -- the evil demigod who decimated the planet and the universe.”</t>
+  </si>
+  <si>
+    <t>“3h 1m”</t>
+  </si>
+  <si>
+    <t>“Avengers: Infinity War”</t>
+  </si>
+  <si>
+    <t>“Iron Man, Thor, the Hulk and the rest of the Avengers unite to battle their most powerful enemy yet -- the evil Thanos. On a mission to collect all six Infinity Stones, Thanos plans to use the artifacts to inflict his twisted will on reality. The fate of the planet and existence itself has never been more uncertain as everything the Avengers have fought for has led up to this moment.”</t>
+  </si>
+  <si>
+    <t>“2h 29m”</t>
+  </si>
+  <si>
+    <t>"The Hobbit: An Unexpected Journey"</t>
+  </si>
+  <si>
+    <t>"Avatar"</t>
+  </si>
+  <si>
+    <t>"Pinocchio"</t>
+  </si>
+  <si>
+    <t>"Gravity"</t>
+  </si>
+  <si>
+    <t>"The Gray Man"</t>
+  </si>
+  <si>
+    <t>"Captain America: The Winter Soldier"</t>
+  </si>
+  <si>
+    <t>"The Lord of the Rings: The Return of the King"</t>
+  </si>
+  <si>
+    <t>"The Terminator"</t>
+  </si>
+  <si>
+    <t>"Pacific Rim"</t>
+  </si>
+  <si>
+    <t>"Roma"</t>
+  </si>
+  <si>
+    <t>"Extraction"</t>
+  </si>
+  <si>
+    <t>"Cherry"</t>
+  </si>
+  <si>
+    <t>"King Kong"</t>
+  </si>
+  <si>
+    <t>"Titanic"</t>
+  </si>
+  <si>
+    <t>"Bilbo Baggins (Martin Freeman) lives a simple life with his fellow hobbits in the shire, until the wizard Gandalf (Ian McKellen) arrives and convinces him to join a group of dwarves on a quest to reclaim the kingdom of Erebor. The journey takes Bilbo on a path through treacherous lands swarming with orcs, goblins and other dangers, not the least of which is an encounter with Gollum (Andy Serkis) and a simple gold ring that is tied to the fate of Middle Earth in ways Bilbo cannot even fathom."</t>
+  </si>
+  <si>
+    <t>"James Cameron's Academy Award®-winning 2009 epic adventure "Avatar", returns to theaters September 23 in stunning 4K High Dynamic Range. On the lush alien world of Pandora live the Na'vi, beings who appear primitive but are highly evolved. Because the planet's environment is poisonous, human/Na'vi hybrids, called Avatars, must link to human minds to allow for free movement on Pandora. Jake Sully (Sam Worthington), a paralyzed former Marine, becomes mobile again through one such Avatar and falls in love with a Na'vi woman (Zoe Saldana). As a bond with her grows, he is drawn into a battle for the survival of her world."</t>
+  </si>
+  <si>
+    <t>"Academy Award®-winning director Guillermo del Toro and award-winning, stop-motion legend Mark Gustafson reimagine the classic Carlo Collodi tale of the fabled wooden boy with a whimsical tour de force that finds Pinocchio on an enchanted adventure that transcends worlds and reveals the life-giving power of love."</t>
+  </si>
+  <si>
+    <t>"Dr. Ryan Stone (Sandra Bullock) is a medical engineer on her first shuttle mission. Her commander is veteran astronaut Matt Kowalsky (George Clooney), helming his last flight before retirement. Then, during a routine space walk by the pair, disaster strikes: The shuttle is destroyed, leaving Ryan and Matt stranded in deep space with no link to Earth and no hope of rescue. As fear turns to panic, they realize that the only way home may be to venture further into space."</t>
+  </si>
+  <si>
+    <t>"When the CIA's most skilled mercenary--whose true identity is known to none--accidentally uncovers dark agency secrets, a psychopathic former colleague puts a bounty on his head, setting off a global manhunt by international assassins."</t>
+  </si>
+  <si>
+    <t>"After the cataclysmic events in New York with his fellow Avengers, Steve Rogers, aka Captain America (Chris Evans), lives in the nation's capital as he tries to adjust to modern times. An attack on a S.H.I.E.L.D. colleague throws Rogers into a web of intrigue that places the whole world at risk. Joining forces with the Black Widow (Scarlett Johansson) and a new ally, the Falcon, Rogers struggles to expose an ever-widening conspiracy, but he and his team soon come up against an unexpected enemy."</t>
+  </si>
+  <si>
+    <t>"The culmination of nearly 10 years' work and conclusion to Peter Jackson's epic trilogy based on the timeless J.R.R. Tolkien classic, "The Lord of the Rings: The Return of the King" presents the final confrontation between the forces of good and evil fighting for control of the future of Middle-earth. Hobbits Frodo and Sam reach Mordor in their quest to destroy the `one ring', while Aragorn leads the forces of good against Sauron's evil army at the stone city of Minas Tirith."</t>
+  </si>
+  <si>
+    <t>"Disguised as a human, a cyborg assassin known as a Terminator (Arnold Schwarzenegger) travels from 2029 to 1984 to kill Sarah Connor (Linda Hamilton). Sent to protect Sarah is Kyle Reese (Michael Biehn), who divulges the coming of Skynet, an artificial intelligence system that will spark a nuclear holocaust. Sarah is targeted because Skynet knows that her unborn son will lead the fight against them. With the virtually unstoppable Terminator in hot pursuit, she and Kyle attempt to escape."</t>
+  </si>
+  <si>
+    <t>"Long ago, legions of monstrous creatures called Kaiju arose from the sea, bringing with them all-consuming war. To fight the Kaiju, mankind developed giant robots called Jaegers, designed to be piloted by two humans locked together in a neural bridge. However, even the Jaegers are not enough to defeat the Kaiju, and humanity is on the verge of defeat. Mankind's last hope now lies with a washed-up ex-pilot (Charlie Hunnam), an untested trainee (Rinko Kikuchi) and an old, obsolete Jaeger."</t>
+  </si>
+  <si>
+    <t>"Cleo is one of two domestic workers who help Antonio and Sofía take care of their four children in 1970s Mexico City. Complications soon arise when Antonio suddenly runs away with his mistress and Cleo finds out that she's pregnant. When Sofía decides to take the kids on vacation, she invites Cleo for a much-needed getaway to clear her mind and bond with the family."</t>
+  </si>
+  <si>
+    <t>"A black-market mercenary who has nothing to lose is hired to rescue the kidnapped son of an imprisoned international crime lord. But in the murky underworld of weapons dealers and drug traffickers, an already deadly mission approaches the impossible."</t>
+  </si>
+  <si>
+    <t>"Cherry drifts from college dropout to army medic in Iraq -- anchored only by his one true love, Emily. However, after returning from the war with PTSD, his life spirals into drugs and crime as he struggles to find his place in the world."</t>
+  </si>
+  <si>
+    <t>"Peter Jackson's expansive remake of the 1933 classic follows director Carl Denham (Jack Black) and his crew on a journey from New York City to the ominous Skull Island to film a new movie. Accompanying him are playwright Jack Driscoll (Adrien Brody) and actress Ann Darrow (Naomi Watts), who is whisked away by the monstrous ape, Kong, after they reach the island. The crew encounters dinosaurs and other creatures as they race to rescue Ann, while the actress forms a bond with her simian captor."</t>
+  </si>
+  <si>
+    <t>"James Cameron's "Titanic" is an epic, action-packed romance set against the ill-fated maiden voyage of the R.M.S. Titanic; the pride and joy of the White Star Line and, at the time, the largest moving object ever built. She was the most luxurious liner of her era -- the "ship of dreams" -- which ultimately carried over 1,500 people to their death in the ice cold waters of the North Atlantic in the early hours of April 15, 1912."</t>
+  </si>
+  <si>
+    <t>“3h 15m”</t>
+  </si>
+  <si>
+    <t>“3h 7m”</t>
+  </si>
+  <si>
+    <t>“2h 20m”</t>
+  </si>
+  <si>
+    <t>“2h 15m”</t>
+  </si>
+  <si>
+    <t>“1h 57m”</t>
+  </si>
+  <si>
+    <t>“3h 30m”</t>
+  </si>
+  <si>
+    <t>“1h 48m”</t>
+  </si>
+  <si>
+    <t>“2h 9m”</t>
+  </si>
+  <si>
+    <t>“1h 31m”</t>
+  </si>
+  <si>
+    <t>“2h 35m”</t>
+  </si>
+  <si>
+    <t>“2h 49m”</t>
+  </si>
+  <si>
+    <t>release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,8 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,92 +572,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56809456-DBC4-4D82-AFB0-6F5829289352}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>